--- a/examples/data/Animais_missing.xlsx
+++ b/examples/data/Animais_missing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\Trabalho\INTRASOM\Testes_dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\Trabalho\INTRASOM\Versões\Software_impacts\Intrasom_en\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7E5902-70C4-41E1-8FDF-218E032E54BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5A6BB-F302-4BAF-BF8B-B06A784759CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,100 +24,100 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>Pequeno</t>
-  </si>
-  <si>
-    <t>Médio</t>
-  </si>
-  <si>
-    <t>Grande</t>
-  </si>
-  <si>
-    <t>2 patas</t>
-  </si>
-  <si>
-    <t>4 patas</t>
-  </si>
-  <si>
-    <t>Juba</t>
-  </si>
-  <si>
-    <t>Caça</t>
-  </si>
-  <si>
-    <t>Corre</t>
-  </si>
-  <si>
-    <t>Voa</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Casco</t>
-  </si>
-  <si>
-    <t>Pêlo</t>
-  </si>
-  <si>
-    <t>Pena</t>
-  </si>
-  <si>
-    <t>Animais</t>
-  </si>
-  <si>
-    <t>Pombo</t>
-  </si>
-  <si>
-    <t>Galinha</t>
-  </si>
-  <si>
-    <t>Pato</t>
-  </si>
-  <si>
-    <t>Ganso</t>
-  </si>
-  <si>
-    <t>Coruja</t>
-  </si>
-  <si>
-    <t>Falcão</t>
-  </si>
-  <si>
-    <t>Águia</t>
-  </si>
-  <si>
-    <t>Raposa</t>
-  </si>
-  <si>
-    <t>Cão</t>
-  </si>
-  <si>
-    <t>Lobo</t>
-  </si>
-  <si>
-    <t>Gato</t>
-  </si>
-  <si>
-    <t>Tigre</t>
-  </si>
-  <si>
-    <t>Leão</t>
-  </si>
-  <si>
-    <t>Cavalo</t>
-  </si>
-  <si>
     <t>Zebra</t>
   </si>
   <si>
-    <t>Vaca</t>
-  </si>
-  <si>
-    <t>Gorila</t>
-  </si>
-  <si>
-    <t>Mico</t>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Hen</t>
+  </si>
+  <si>
+    <t>Duck</t>
+  </si>
+  <si>
+    <t>Goose</t>
+  </si>
+  <si>
+    <t>Owl</t>
+  </si>
+  <si>
+    <t>Hawk</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Gorilla</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>2 legs</t>
+  </si>
+  <si>
+    <t>4 legs</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Hooves</t>
+  </si>
+  <si>
+    <t>Mane</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Swin</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,51 +506,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>-9999</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
